--- a/Beall_BUSN661_HW1.xlsx
+++ b/Beall_BUSN661_HW1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Documents/Business Analytics/BUSN661/01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1687" documentId="8_{1E85D1FB-DFEB-41FE-8B7A-55B000E66DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FECD9960-2B90-406F-85A8-C8D96966722E}"/>
+  <xr:revisionPtr revIDLastSave="1766" documentId="8_{1E85D1FB-DFEB-41FE-8B7A-55B000E66DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73F4464-9387-44A2-AF41-6DB533315319}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6370C030-53FD-4E75-B44B-AD656BADF2C4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{6370C030-53FD-4E75-B44B-AD656BADF2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -355,11 +355,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -448,15 +449,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
@@ -464,15 +459,22 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -481,16 +483,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -508,13 +500,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1215,6 +1217,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0984689413823271E-2"/>
+                  <c:y val="-0.11658974919801691"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'16'!$A$14:$A$26</c:f>
@@ -1505,6 +1557,911 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demand</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5848643919510066E-3"/>
+                  <c:y val="-0.18528506853310003"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'16'!$A$14:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'16'!$C$14:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>20785.292883709753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12166.680885132264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7854.8360878714966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5425.8131232756969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3938.0765954511976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.3704873691686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2305.154972130043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1833.8241312297007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1488.213148201321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1228.1066475521104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1027.9993547173101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>871.1262605019333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>746.12599198903069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-31B4-4EF5-A06C-4C3A1F33CCD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1134740288"/>
+        <c:axId val="854891743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1134740288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854891743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="854891743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134740288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profit/Unit ($)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'16'!$A$14:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'16'!$B$14:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.0000_);[Red]\("$"#,##0.0000\)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-25.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.474999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.2650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9450000000000074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.365000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.680000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FCE6-4431-AA3A-6961192210D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1218986192"/>
+        <c:axId val="1218986672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1218986192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218986672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1218986672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218986192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1625,6 +2582,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2658,6 +3695,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3337,6 +5406,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B30268-FE79-4F68-08D4-439AE482EA89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E5F3E5-538C-0764-29B7-F11D767D8F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3348,11 +5489,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0238707-6932-4FFD-BB8C-4E5BDB2F0BDB}" name="Table2" displayName="Table2" ref="A13:D26" totalsRowShown="0">
   <autoFilter ref="A13:D26" xr:uid="{A0238707-6932-4FFD-BB8C-4E5BDB2F0BDB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DB0AADCC-84D1-463B-B38A-16AC48BD22EE}" name="Price Charged (Pounds)" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FA85F9BA-3748-46F1-83B1-341E3C0AFCA6}" name="Profit/Unit ($)" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{DB0AADCC-84D1-463B-B38A-16AC48BD22EE}" name="Price Charged (Pounds)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FA85F9BA-3748-46F1-83B1-341E3C0AFCA6}" name="Profit/Unit ($)" dataDxfId="2">
       <calculatedColumnFormula>(A14*USEExchange)-USEUnitCost</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{81E696F5-670A-4255-9155-49AFFB656BD1}" name="Demand" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{81E696F5-670A-4255-9155-49AFFB656BD1}" name="Demand" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>USEConstant*A14^USEExponent</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{89605DFD-DAFC-4C11-A095-38D04A5BE9F9}" name="Profit" dataDxfId="1">
@@ -3682,7 +5823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83A0039-9CC2-475A-9E4C-F4FFA8C742AB}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3692,24 +5833,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>50</v>
       </c>
     </row>
@@ -3717,7 +5858,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>166.66666666666825</v>
       </c>
     </row>
@@ -3725,7 +5866,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -3733,7 +5874,7 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -3741,7 +5882,7 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <f>(CupsWk*CostCup)-(CupsWk*Var)-Fixed</f>
         <v>4.7606363295926712E-13</v>
       </c>
@@ -3752,18 +5893,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3774,10 +5915,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>167</v>
       </c>
     </row>
@@ -3811,12 +5952,12 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3826,12 +5967,12 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3841,17 +5982,17 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3880,18 +6021,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3902,7 +6043,7 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3910,7 +6051,7 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>5000</v>
       </c>
     </row>
@@ -3918,7 +6059,7 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <f>400*12</f>
         <v>4800</v>
       </c>
@@ -3927,7 +6068,7 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -3935,7 +6076,7 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>0.03</v>
       </c>
     </row>
@@ -3943,7 +6084,7 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>282857.28571428568</v>
       </c>
     </row>
@@ -3951,7 +6092,7 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <f>(CopierPrice-CopierCost)*B10-(Copiers*CopierRent)-CopierFixed</f>
         <v>9.9999999983992893E-3</v>
       </c>
@@ -3960,12 +6101,12 @@
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4094,31 +6235,31 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="8">
-        <f>(CopierPrice-CopierCost)*B15</f>
+      <c r="B22" s="6">
+        <f t="shared" ref="B22:E26" si="5">(CopierPrice-CopierCost)*B15</f>
         <v>7000.0000000000009</v>
       </c>
-      <c r="C22" s="8">
-        <f>(CopierPrice-CopierCost)*C15</f>
+      <c r="C22" s="6">
+        <f t="shared" si="5"/>
         <v>7000.0000000000009</v>
       </c>
-      <c r="D22" s="8">
-        <f>(CopierPrice-CopierCost)*D15</f>
+      <c r="D22" s="6">
+        <f t="shared" si="5"/>
         <v>7000.0000000000009</v>
       </c>
-      <c r="E22" s="8">
-        <f>(CopierPrice-CopierCost)*E15</f>
+      <c r="E22" s="6">
+        <f t="shared" si="5"/>
         <v>7000.0000000000009</v>
       </c>
     </row>
@@ -4126,20 +6267,20 @@
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="8">
-        <f>(CopierPrice-CopierCost)*B16</f>
+      <c r="B23" s="6">
+        <f t="shared" si="5"/>
         <v>12775.000000000002</v>
       </c>
-      <c r="C23" s="8">
-        <f>(CopierPrice-CopierCost)*C16</f>
+      <c r="C23" s="6">
+        <f t="shared" si="5"/>
         <v>14000.000000000002</v>
       </c>
-      <c r="D23" s="8">
-        <f>(CopierPrice-CopierCost)*D16</f>
+      <c r="D23" s="6">
+        <f t="shared" si="5"/>
         <v>14000.000000000002</v>
       </c>
-      <c r="E23" s="8">
-        <f>(CopierPrice-CopierCost)*E16</f>
+      <c r="E23" s="6">
+        <f t="shared" si="5"/>
         <v>14000.000000000002</v>
       </c>
     </row>
@@ -4147,20 +6288,20 @@
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="8">
-        <f>(CopierPrice-CopierCost)*B17</f>
+      <c r="B24" s="6">
+        <f t="shared" si="5"/>
         <v>12775.000000000002</v>
       </c>
-      <c r="C24" s="8">
-        <f>(CopierPrice-CopierCost)*C17</f>
+      <c r="C24" s="6">
+        <f t="shared" si="5"/>
         <v>21000.000000000004</v>
       </c>
-      <c r="D24" s="8">
-        <f>(CopierPrice-CopierCost)*D17</f>
+      <c r="D24" s="6">
+        <f t="shared" si="5"/>
         <v>21000.000000000004</v>
       </c>
-      <c r="E24" s="8">
-        <f>(CopierPrice-CopierCost)*E17</f>
+      <c r="E24" s="6">
+        <f t="shared" si="5"/>
         <v>21000.000000000004</v>
       </c>
     </row>
@@ -4168,20 +6309,20 @@
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" s="8">
-        <f>(CopierPrice-CopierCost)*B18</f>
+      <c r="B25" s="6">
+        <f t="shared" si="5"/>
         <v>12775.000000000002</v>
       </c>
-      <c r="C25" s="8">
-        <f>(CopierPrice-CopierCost)*C18</f>
+      <c r="C25" s="6">
+        <f t="shared" si="5"/>
         <v>25550.000000000004</v>
       </c>
-      <c r="D25" s="8">
-        <f>(CopierPrice-CopierCost)*D18</f>
+      <c r="D25" s="6">
+        <f t="shared" si="5"/>
         <v>28000.000000000004</v>
       </c>
-      <c r="E25" s="8">
-        <f>(CopierPrice-CopierCost)*E18</f>
+      <c r="E25" s="6">
+        <f t="shared" si="5"/>
         <v>28000.000000000004</v>
       </c>
     </row>
@@ -4189,54 +6330,54 @@
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="8">
-        <f>(CopierPrice-CopierCost)*B19</f>
+      <c r="B26" s="6">
+        <f t="shared" si="5"/>
         <v>12775.000000000002</v>
       </c>
-      <c r="C26" s="8">
-        <f>(CopierPrice-CopierCost)*C19</f>
+      <c r="C26" s="6">
+        <f t="shared" si="5"/>
         <v>25550.000000000004</v>
       </c>
-      <c r="D26" s="8">
-        <f>(CopierPrice-CopierCost)*D19</f>
+      <c r="D26" s="6">
+        <f t="shared" si="5"/>
         <v>35000</v>
       </c>
-      <c r="E26" s="8">
-        <f>(CopierPrice-CopierCost)*E19</f>
+      <c r="E26" s="6">
+        <f t="shared" si="5"/>
         <v>35000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <f>B22-CopierRent*$A$29-CopierFixed</f>
         <v>-2799.9999999999991</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <f>C22-CopierRent*$A$29-CopierFixed</f>
         <v>-2799.9999999999991</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <f>D22-CopierRent*$A$29-CopierFixed</f>
         <v>-2799.9999999999991</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <f>E22-CopierRent*$A$29-CopierFixed</f>
         <v>-2799.9999999999991</v>
       </c>
@@ -4245,19 +6386,19 @@
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <f>B23-CopierRent*$A$30-CopierFixed</f>
         <v>-2024.9999999999982</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <f>C23-CopierRent*$A$30-CopierFixed</f>
         <v>-799.99999999999818</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <f>D23-CopierRent*$A$30-CopierFixed</f>
         <v>-799.99999999999818</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <f>E23-CopierRent*$A$30-CopierFixed</f>
         <v>-799.99999999999818</v>
       </c>
@@ -4266,19 +6407,19 @@
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <f>B24-CopierRent*$A$31-CopierFixed</f>
         <v>-7024.9999999999982</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <f>C24-CopierRent*$A$31-CopierFixed</f>
         <v>1200.0000000000036</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <f>D24-CopierRent*$A$31-CopierFixed</f>
         <v>1200.0000000000036</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <f>E24-CopierRent*$A$31-CopierFixed</f>
         <v>1200.0000000000036</v>
       </c>
@@ -4287,19 +6428,19 @@
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <f>B25-CopierRent*$A$32-CopierFixed</f>
         <v>-12024.999999999998</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <f>C25-CopierRent*$A$32-CopierFixed</f>
         <v>750.00000000000364</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <f>D25-CopierRent*$A$32-CopierFixed</f>
         <v>3200.0000000000036</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="6">
         <f>E25-CopierRent*$A$32-CopierFixed</f>
         <v>3200.0000000000036</v>
       </c>
@@ -4308,28 +6449,28 @@
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="6">
         <f>B26-CopierRent*$A$33-CopierFixed</f>
         <v>-17025</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="6">
         <f>C26-CopierRent*$A$33-CopierFixed</f>
         <v>-4249.9999999999964</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <f>D26-CopierRent*$A$33-CopierFixed</f>
         <v>5200</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="6">
         <f>E26-CopierRent*$A$33-CopierFixed</f>
         <v>5200</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4377,10 +6518,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="2">
         <v>282857.28571428568</v>
       </c>
       <c r="C42" t="s">
@@ -4396,10 +6537,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <f>$B$42/365</f>
         <v>774.95146771037173</v>
       </c>
@@ -4440,7 +6581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BCB37E-BED0-48D1-9A32-1CE71AA23D21}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4451,24 +6592,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -4476,7 +6617,7 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>45</v>
       </c>
     </row>
@@ -4484,7 +6625,7 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>10</v>
       </c>
     </row>
@@ -4492,7 +6633,7 @@
       <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
     </row>
@@ -4500,7 +6641,7 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4508,7 +6649,7 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <f>(DataUnits*1.3)*(DataPricePer-DataVarCost)-((DataUnits*1.3)/2)*DataRebate</f>
         <v>1820000</v>
       </c>
@@ -4549,10 +6690,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>35868.131868131873</v>
       </c>
     </row>
@@ -4612,39 +6753,39 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="10">
         <v>0.15</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="10">
         <v>0.2</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="10">
         <v>0.25</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="10">
         <v>0.3</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="10">
         <v>0.35</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="10">
         <v>0.4</v>
       </c>
     </row>
@@ -4653,27 +6794,27 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <f>(DataUnits*(1+B30))*(DataPricePer-DataVarCost)-((DataUnits*(1+B30))/2)*DataRebate</f>
+        <f t="shared" ref="B31:G31" si="0">(DataUnits*(1+B30))*(DataPricePer-DataVarCost)-((DataUnits*(1+B30))/2)*DataRebate</f>
         <v>1610000</v>
       </c>
       <c r="C31" s="1">
-        <f>(DataUnits*(1+C30))*(DataPricePer-DataVarCost)-((DataUnits*(1+C30))/2)*DataRebate</f>
+        <f t="shared" si="0"/>
         <v>1680000</v>
       </c>
       <c r="D31" s="1">
-        <f>(DataUnits*(1+D30))*(DataPricePer-DataVarCost)-((DataUnits*(1+D30))/2)*DataRebate</f>
+        <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
       <c r="E31" s="1">
-        <f>(DataUnits*(1+E30))*(DataPricePer-DataVarCost)-((DataUnits*(1+E30))/2)*DataRebate</f>
+        <f t="shared" si="0"/>
         <v>1820000</v>
       </c>
       <c r="F31" s="1">
-        <f>(DataUnits*(1+F30))*(DataPricePer-DataVarCost)-((DataUnits*(1+F30))/2)*DataRebate</f>
+        <f t="shared" si="0"/>
         <v>1890000</v>
       </c>
       <c r="G31" s="1">
-        <f>(DataUnits*(1+G30))*(DataPricePer-DataVarCost)-((DataUnits*(1+G30))/2)*DataRebate</f>
+        <f t="shared" si="0"/>
         <v>1960000</v>
       </c>
     </row>
@@ -4681,19 +6822,19 @@
       <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="10">
         <v>0.1</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="10">
         <v>0.15</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="10">
         <v>0.2</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="10">
         <v>0.25</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="10">
         <v>0.3</v>
       </c>
     </row>
@@ -4733,33 +6874,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178418E2-CB79-4ABA-AA3C-3B204B28F03E}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -4775,7 +6916,7 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>27556759</v>
       </c>
     </row>
@@ -4824,7 +6965,7 @@
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <f>B10/USEExchange</f>
         <v>4.0950040950040947</v>
       </c>
@@ -4844,15 +6985,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="11">
         <v>20</v>
       </c>
-      <c r="B14" s="1">
-        <f>(A14*USEExchange)-USEUnitCost</f>
+      <c r="B14" s="15">
+        <f t="shared" ref="B14:B26" si="0">(A14*USEExchange)-USEUnitCost</f>
         <v>-25.58</v>
       </c>
-      <c r="C14" s="11">
-        <f>USEConstant*A14^USEExponent</f>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:C26" si="1">USEConstant*A14^USEExponent</f>
         <v>20785.292883709753</v>
       </c>
       <c r="D14" s="1">
@@ -4861,15 +7002,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="11">
         <v>25</v>
       </c>
-      <c r="B15" s="1">
-        <f>(A15*USEExchange)-USEUnitCost</f>
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
         <v>-19.474999999999998</v>
       </c>
-      <c r="C15" s="11">
-        <f>USEConstant*A15^USEExponent</f>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
         <v>12166.680885132264</v>
       </c>
       <c r="D15" s="1">
@@ -4878,15 +7019,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>30</v>
       </c>
-      <c r="B16" s="1">
-        <f>(A16*USEExchange)-USEUnitCost</f>
+      <c r="B16" s="15">
+        <f t="shared" si="0"/>
         <v>-13.369999999999997</v>
       </c>
-      <c r="C16" s="11">
-        <f>USEConstant*A16^USEExponent</f>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
         <v>7854.8360878714966</v>
       </c>
       <c r="D16" s="1">
@@ -4895,15 +7036,15 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="11">
         <v>35</v>
       </c>
-      <c r="B17" s="1">
-        <f>(A17*USEExchange)-USEUnitCost</f>
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
         <v>-7.2650000000000006</v>
       </c>
-      <c r="C17" s="11">
-        <f>USEConstant*A17^USEExponent</f>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
         <v>5425.8131232756969</v>
       </c>
       <c r="D17" s="1">
@@ -4912,15 +7053,15 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="11">
         <v>40</v>
       </c>
-      <c r="B18" s="1">
-        <f>(A18*USEExchange)-USEUnitCost</f>
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
         <v>-1.1599999999999966</v>
       </c>
-      <c r="C18" s="11">
-        <f>USEConstant*A18^USEExponent</f>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
         <v>3938.0765954511976</v>
       </c>
       <c r="D18" s="1">
@@ -4929,15 +7070,15 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="11">
         <v>45</v>
       </c>
-      <c r="B19" s="1">
-        <f>(A19*USEExchange)-USEUnitCost</f>
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
         <v>4.9450000000000074</v>
       </c>
-      <c r="C19" s="11">
-        <f>USEConstant*A19^USEExponent</f>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
         <v>2968.3704873691686</v>
       </c>
       <c r="D19" s="1">
@@ -4946,15 +7087,15 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="11">
         <v>50</v>
       </c>
-      <c r="B20" s="1">
-        <f>(A20*USEExchange)-USEUnitCost</f>
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
         <v>11.050000000000004</v>
       </c>
-      <c r="C20" s="11">
-        <f>USEConstant*A20^USEExponent</f>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
         <v>2305.154972130043</v>
       </c>
       <c r="D20" s="1">
@@ -4963,15 +7104,15 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="11">
         <v>55</v>
       </c>
-      <c r="B21" s="1">
-        <f>(A21*USEExchange)-USEUnitCost</f>
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
         <v>17.155000000000001</v>
       </c>
-      <c r="C21" s="11">
-        <f>USEConstant*A21^USEExponent</f>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
         <v>1833.8241312297007</v>
       </c>
       <c r="D21" s="1">
@@ -4980,15 +7121,15 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="11">
         <v>60</v>
       </c>
-      <c r="B22" s="1">
-        <f>(A22*USEExchange)-USEUnitCost</f>
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
         <v>23.260000000000005</v>
       </c>
-      <c r="C22" s="11">
-        <f>USEConstant*A22^USEExponent</f>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
         <v>1488.213148201321</v>
       </c>
       <c r="D22" s="1">
@@ -4997,15 +7138,15 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="11">
         <v>65</v>
       </c>
-      <c r="B23" s="1">
-        <f>(A23*USEExchange)-USEUnitCost</f>
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
         <v>29.365000000000009</v>
       </c>
-      <c r="C23" s="11">
-        <f>USEConstant*A23^USEExponent</f>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
         <v>1228.1066475521104</v>
       </c>
       <c r="D23" s="1">
@@ -5014,15 +7155,15 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="11">
         <v>70</v>
       </c>
-      <c r="B24" s="1">
-        <f>(A24*USEExchange)-USEUnitCost</f>
+      <c r="B24" s="15">
+        <f t="shared" si="0"/>
         <v>35.47</v>
       </c>
-      <c r="C24" s="11">
-        <f>USEConstant*A24^USEExponent</f>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
         <v>1027.9993547173101</v>
       </c>
       <c r="D24" s="1">
@@ -5031,15 +7172,15 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="11">
         <v>75</v>
       </c>
-      <c r="B25" s="1">
-        <f>(A25*USEExchange)-USEUnitCost</f>
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
         <v>41.575000000000003</v>
       </c>
-      <c r="C25" s="11">
-        <f>USEConstant*A25^USEExponent</f>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
         <v>871.1262605019333</v>
       </c>
       <c r="D25" s="1">
@@ -5048,15 +7189,15 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="11">
         <v>80</v>
       </c>
-      <c r="B26" s="1">
-        <f>(A26*USEExchange)-USEUnitCost</f>
+      <c r="B26" s="15">
+        <f t="shared" si="0"/>
         <v>47.680000000000007</v>
       </c>
-      <c r="C26" s="11">
-        <f>USEConstant*A26^USEExponent</f>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
         <v>746.12599198903069</v>
       </c>
       <c r="D26" s="1">
@@ -5078,13 +7219,55 @@
       <c r="A32" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D26">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Beall_BUSN661_HW1.xlsx
+++ b/Beall_BUSN661_HW1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Documents/Business Analytics/BUSN661/01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1766" documentId="8_{1E85D1FB-DFEB-41FE-8B7A-55B000E66DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73F4464-9387-44A2-AF41-6DB533315319}"/>
+  <xr:revisionPtr revIDLastSave="1782" documentId="8_{1E85D1FB-DFEB-41FE-8B7A-55B000E66DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328165C7-76B0-4801-8B89-86C9229AB444}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{6370C030-53FD-4E75-B44B-AD656BADF2C4}"/>
   </bookViews>
@@ -5491,10 +5491,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DB0AADCC-84D1-463B-B38A-16AC48BD22EE}" name="Price Charged (Pounds)" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{FA85F9BA-3748-46F1-83B1-341E3C0AFCA6}" name="Profit/Unit ($)" dataDxfId="2">
-      <calculatedColumnFormula>(A14*USEExchange)-USEUnitCost</calculatedColumnFormula>
+      <calculatedColumnFormula>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{81E696F5-670A-4255-9155-49AFFB656BD1}" name="Demand" dataDxfId="0" dataCellStyle="Comma">
-      <calculatedColumnFormula>USEConstant*A14^USEExponent</calculatedColumnFormula>
+      <calculatedColumnFormula>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{89605DFD-DAFC-4C11-A095-38D04A5BE9F9}" name="Profit" dataDxfId="1">
       <calculatedColumnFormula>Table2[[#This Row],[Demand]]*Table2[[#This Row],[Profit/Unit ($)]]</calculatedColumnFormula>
@@ -6877,7 +6877,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6989,11 +6989,11 @@
         <v>20</v>
       </c>
       <c r="B14" s="15">
-        <f t="shared" ref="B14:B26" si="0">(A14*USEExchange)-USEUnitCost</f>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>-25.58</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" ref="C14:C26" si="1">USEConstant*A14^USEExponent</f>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>20785.292883709753</v>
       </c>
       <c r="D14" s="1">
@@ -7006,11 +7006,11 @@
         <v>25</v>
       </c>
       <c r="B15" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>-19.474999999999998</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>12166.680885132264</v>
       </c>
       <c r="D15" s="1">
@@ -7023,11 +7023,11 @@
         <v>30</v>
       </c>
       <c r="B16" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>-13.369999999999997</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>7854.8360878714966</v>
       </c>
       <c r="D16" s="1">
@@ -7040,11 +7040,11 @@
         <v>35</v>
       </c>
       <c r="B17" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>-7.2650000000000006</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>5425.8131232756969</v>
       </c>
       <c r="D17" s="1">
@@ -7057,11 +7057,11 @@
         <v>40</v>
       </c>
       <c r="B18" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>-1.1599999999999966</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>3938.0765954511976</v>
       </c>
       <c r="D18" s="1">
@@ -7074,11 +7074,11 @@
         <v>45</v>
       </c>
       <c r="B19" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>4.9450000000000074</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>2968.3704873691686</v>
       </c>
       <c r="D19" s="1">
@@ -7091,11 +7091,11 @@
         <v>50</v>
       </c>
       <c r="B20" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>11.050000000000004</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>2305.154972130043</v>
       </c>
       <c r="D20" s="1">
@@ -7108,11 +7108,11 @@
         <v>55</v>
       </c>
       <c r="B21" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>17.155000000000001</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>1833.8241312297007</v>
       </c>
       <c r="D21" s="1">
@@ -7125,11 +7125,11 @@
         <v>60</v>
       </c>
       <c r="B22" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>23.260000000000005</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>1488.213148201321</v>
       </c>
       <c r="D22" s="1">
@@ -7142,11 +7142,11 @@
         <v>65</v>
       </c>
       <c r="B23" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>29.365000000000009</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>1228.1066475521104</v>
       </c>
       <c r="D23" s="1">
@@ -7159,11 +7159,11 @@
         <v>70</v>
       </c>
       <c r="B24" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>35.47</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>1027.9993547173101</v>
       </c>
       <c r="D24" s="1">
@@ -7176,11 +7176,11 @@
         <v>75</v>
       </c>
       <c r="B25" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>41.575000000000003</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>871.1262605019333</v>
       </c>
       <c r="D25" s="1">
@@ -7193,11 +7193,11 @@
         <v>80</v>
       </c>
       <c r="B26" s="15">
-        <f t="shared" si="0"/>
+        <f>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</f>
         <v>47.680000000000007</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" si="1"/>
+        <f>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</f>
         <v>746.12599198903069</v>
       </c>
       <c r="D26" s="1">
@@ -7220,47 +7220,137 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
+        <f>B14-B15</f>
+        <v>-6.1050000000000004</v>
+      </c>
+      <c r="C35" s="16">
+        <f>C14-C15</f>
+        <v>8618.6119985774894</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="16">
+        <f>B15-B16</f>
+        <v>-6.1050000000000004</v>
+      </c>
+      <c r="C36" s="16">
+        <f>C15-C16</f>
+        <v>4311.8447972607673</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="15">
+        <f>B16-B17</f>
+        <v>-6.1049999999999969</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" ref="C37:C49" si="0">C16-C17</f>
+        <v>2429.0229645957997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
+        <f t="shared" ref="B38:B46" si="1">B17-B18</f>
+        <v>-6.105000000000004</v>
+      </c>
+      <c r="C38" s="16">
+        <f t="shared" si="0"/>
+        <v>1487.7365278244993</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="16">
+        <f t="shared" si="1"/>
+        <v>-6.105000000000004</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="0"/>
+        <v>969.706108082029</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="15">
+        <f t="shared" si="1"/>
+        <v>-6.1049999999999969</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" si="0"/>
+        <v>663.21551523912558</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="15">
+        <f t="shared" si="1"/>
+        <v>-6.1049999999999969</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" si="0"/>
+        <v>471.33084090034231</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="16">
+        <f t="shared" si="1"/>
+        <v>-6.105000000000004</v>
+      </c>
+      <c r="C42" s="16">
+        <f t="shared" si="0"/>
+        <v>345.61098302837968</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>-6.105000000000004</v>
+      </c>
+      <c r="C43" s="16">
+        <f t="shared" si="0"/>
+        <v>260.1065006492106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>-6.1049999999999898</v>
+      </c>
+      <c r="C44" s="16">
+        <f t="shared" si="0"/>
+        <v>200.10729283480032</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="16">
+        <f t="shared" si="1"/>
+        <v>-6.105000000000004</v>
+      </c>
+      <c r="C45" s="16">
+        <f t="shared" si="0"/>
+        <v>156.8730942153768</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>-6.105000000000004</v>
+      </c>
+      <c r="C46" s="16">
+        <f t="shared" si="0"/>
+        <v>125.00026851290261</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Beall_BUSN661_HW1.xlsx
+++ b/Beall_BUSN661_HW1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Documents/Business Analytics/BUSN661/01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1782" documentId="8_{1E85D1FB-DFEB-41FE-8B7A-55B000E66DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328165C7-76B0-4801-8B89-86C9229AB444}"/>
+  <xr:revisionPtr revIDLastSave="1835" documentId="8_{1E85D1FB-DFEB-41FE-8B7A-55B000E66DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33789AD0-52A3-4051-AAE8-1E522F13E55B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{6370C030-53FD-4E75-B44B-AD656BADF2C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{6370C030-53FD-4E75-B44B-AD656BADF2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
@@ -69,18 +70,21 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'13'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'14'!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'15'!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'16'!$A$56</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -117,12 +121,15 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">1632000</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="USEConstant">'16'!$B$5</definedName>
     <definedName name="USEExchange">'16'!$B$7</definedName>
     <definedName name="USEExponent">'16'!$B$6</definedName>
@@ -151,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>Fixed</t>
   </si>
@@ -345,10 +352,19 @@
     <t>Profit/Unit ($)</t>
   </si>
   <si>
-    <t xml:space="preserve">Profit Peaks at price of £70 </t>
+    <t>The profit increases as the exchange rate decreases and vice versa</t>
   </si>
   <si>
-    <t>The profit increases as the exchange rate decreases and vice versa</t>
+    <t>Max Price Point (Wolfram)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit Peaks at price of near £70 </t>
+  </si>
+  <si>
+    <t>y=(27556759*x^-2.4)*(1.221*x-50)</t>
+  </si>
+  <si>
+    <t>Wolfram Notes</t>
   </si>
 </sst>
 </file>
@@ -449,7 +465,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,6 +491,7 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -483,6 +500,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -510,13 +534,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1953,37 +1970,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5416,7 +5402,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5478,6 +5464,189 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="max{(27556759 (1.221 x - 50))/x^2.4} = (31953247001137 (2849/2)^(2/5))/16000000000 at x = 200000/2849">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66852781-89B6-6B03-C82F-2EFEC01BB62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8058150"/>
+          <a:ext cx="4972050" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="y = 27556759/x^2.4 (1.221 x - 50)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC1A942-FB59-CEE5-5A92-FE2E42CC7045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7486650"/>
+          <a:ext cx="1866900" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="-1377837950/x^2.4 + (3.36468×10^7)/x^1.4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395F27F0-DF59-4A5D-DED5-AB27020CC2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3438525" y="7496175"/>
+          <a:ext cx="2019300" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5489,14 +5658,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0238707-6932-4FFD-BB8C-4E5BDB2F0BDB}" name="Table2" displayName="Table2" ref="A13:D26" totalsRowShown="0">
   <autoFilter ref="A13:D26" xr:uid="{A0238707-6932-4FFD-BB8C-4E5BDB2F0BDB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DB0AADCC-84D1-463B-B38A-16AC48BD22EE}" name="Price Charged (Pounds)" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FA85F9BA-3748-46F1-83B1-341E3C0AFCA6}" name="Profit/Unit ($)" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{DB0AADCC-84D1-463B-B38A-16AC48BD22EE}" name="Price Charged (Pounds)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FA85F9BA-3748-46F1-83B1-341E3C0AFCA6}" name="Profit/Unit ($)" dataDxfId="3">
       <calculatedColumnFormula>(Table2[[#This Row],[Price Charged (Pounds)]]*USEExchange)-USEUnitCost</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{81E696F5-670A-4255-9155-49AFFB656BD1}" name="Demand" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{81E696F5-670A-4255-9155-49AFFB656BD1}" name="Demand" dataDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>USEConstant*Table2[[#This Row],[Price Charged (Pounds)]]^USEExponent</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{89605DFD-DAFC-4C11-A095-38D04A5BE9F9}" name="Profit" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{89605DFD-DAFC-4C11-A095-38D04A5BE9F9}" name="Profit" dataDxfId="2">
       <calculatedColumnFormula>Table2[[#This Row],[Demand]]*Table2[[#This Row],[Profit/Unit ($)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6874,10 +7043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178418E2-CB79-4ABA-AA3C-3B204B28F03E}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6888,7 +7057,7 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
@@ -7207,7 +7376,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7217,147 +7386,99 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
-        <f>B14-B15</f>
-        <v>-6.1050000000000004</v>
-      </c>
-      <c r="C35" s="16">
-        <f>C14-C15</f>
-        <v>8618.6119985774894</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="16">
-        <f>B15-B16</f>
-        <v>-6.1050000000000004</v>
-      </c>
-      <c r="C36" s="16">
-        <f>C15-C16</f>
-        <v>4311.8447972607673</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="15">
-        <f>B16-B17</f>
-        <v>-6.1049999999999969</v>
-      </c>
-      <c r="C37" s="16">
-        <f t="shared" ref="C37:C49" si="0">C16-C17</f>
-        <v>2429.0229645957997</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
-        <f t="shared" ref="B38:B46" si="1">B17-B18</f>
-        <v>-6.105000000000004</v>
-      </c>
-      <c r="C38" s="16">
-        <f t="shared" si="0"/>
-        <v>1487.7365278244993</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="16">
-        <f t="shared" si="1"/>
-        <v>-6.105000000000004</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="0"/>
-        <v>969.706108082029</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="15">
-        <f t="shared" si="1"/>
-        <v>-6.1049999999999969</v>
-      </c>
-      <c r="C40" s="16">
-        <f t="shared" si="0"/>
-        <v>663.21551523912558</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
-        <f t="shared" si="1"/>
-        <v>-6.1049999999999969</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" si="0"/>
-        <v>471.33084090034231</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="16">
-        <f t="shared" si="1"/>
-        <v>-6.105000000000004</v>
-      </c>
-      <c r="C42" s="16">
-        <f t="shared" si="0"/>
-        <v>345.61098302837968</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="15">
-        <f t="shared" si="1"/>
-        <v>-6.105000000000004</v>
-      </c>
-      <c r="C43" s="16">
-        <f t="shared" si="0"/>
-        <v>260.1065006492106</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
-        <f t="shared" si="1"/>
-        <v>-6.1049999999999898</v>
-      </c>
-      <c r="C44" s="16">
-        <f t="shared" si="0"/>
-        <v>200.10729283480032</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="16">
-        <f t="shared" si="1"/>
-        <v>-6.105000000000004</v>
-      </c>
-      <c r="C45" s="16">
-        <f t="shared" si="0"/>
-        <v>156.8730942153768</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="15">
-        <f t="shared" si="1"/>
-        <v>-6.105000000000004</v>
-      </c>
-      <c r="C46" s="16">
-        <f t="shared" si="0"/>
-        <v>125.00026851290261</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="15"/>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="15"/>
       <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <f>200000/2849</f>
+        <v>70.200070200070201</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D26">
-    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
